--- a/case3_Borate/_borate_UBK_530.xlsx
+++ b/case3_Borate/_borate_UBK_530.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO Papers\Regression_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BDC4BD-8E33-4B4B-8EA4-C15CF0AD9A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D706C93-C471-4084-BB84-441180899813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -283,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +311,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -420,11 +429,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -461,8 +490,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1838,15 +1873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1158240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1097280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1872,6 +1907,231 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="glucose"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>1.5430500000000001E-4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>0.6</v>
+          </cell>
+          <cell r="G3">
+            <v>1.49925E-4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1.2</v>
+          </cell>
+          <cell r="G4">
+            <v>1.5125500000000001E-4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1.7999999999999998</v>
+          </cell>
+          <cell r="G5">
+            <v>1.4651499999999998E-4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>2.4</v>
+          </cell>
+          <cell r="G6">
+            <v>1.4333500000000002E-4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>3</v>
+          </cell>
+          <cell r="G7">
+            <v>1.4361500000000001E-4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>3.5999999999999996</v>
+          </cell>
+          <cell r="G8">
+            <v>1.5319999999999998E-4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>4.2</v>
+          </cell>
+          <cell r="G9">
+            <v>1.4867E-4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>4.8</v>
+          </cell>
+          <cell r="G10">
+            <v>3.8174000000000004E-4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>5.3999999999999995</v>
+          </cell>
+          <cell r="G11">
+            <v>3.817225E-3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>6</v>
+          </cell>
+          <cell r="G12">
+            <v>7.4180600000000006E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>6.6</v>
+          </cell>
+          <cell r="G13">
+            <v>8.9832499999999999E-3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>7.1999999999999993</v>
+          </cell>
+          <cell r="G14">
+            <v>7.0869650000000006E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>7.8</v>
+          </cell>
+          <cell r="G15">
+            <v>9.4986400000000009E-3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>8.4</v>
+          </cell>
+          <cell r="G16">
+            <v>8.7409950000000014E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>9</v>
+          </cell>
+          <cell r="G17">
+            <v>3.960435E-3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>9.6</v>
+          </cell>
+          <cell r="G18">
+            <v>8.1804999999999996E-4</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>10.199999999999999</v>
+          </cell>
+          <cell r="G19">
+            <v>1.8696499999999998E-4</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>10.799999999999999</v>
+          </cell>
+          <cell r="G20">
+            <v>1.4917000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>11.4</v>
+          </cell>
+          <cell r="G21">
+            <v>1.4582499999999998E-4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>12</v>
+          </cell>
+          <cell r="G22">
+            <v>1.4863499999999999E-4</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>12.6</v>
+          </cell>
+          <cell r="G23">
+            <v>1.5746999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>13.2</v>
+          </cell>
+          <cell r="G24">
+            <v>1.4927500000000001E-4</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>13.799999999999999</v>
+          </cell>
+          <cell r="G25">
+            <v>1.5212500000000002E-4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>14.399999999999999</v>
+          </cell>
+          <cell r="G26">
+            <v>1.5136000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>15</v>
+          </cell>
+          <cell r="G27">
+            <v>1.55415E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2153,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2186,10 +2446,10 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F1" s="20" t="s">
@@ -2252,13 +2512,13 @@
         <f t="shared" ref="C2:C27" si="0">B2*$J$5</f>
         <v>0</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="21">
         <v>36</v>
       </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23">
         <f>E2/1000</f>
         <v>0</v>
       </c>
@@ -2312,7 +2572,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2323,13 +2583,13 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="21">
         <v>72</v>
       </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
         <f t="shared" ref="F3:F34" si="1">E3/1000</f>
         <v>0</v>
       </c>
@@ -2337,8 +2597,8 @@
         <f t="shared" ref="G3:G34" si="2">F4*(1/1000)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
@@ -2353,13 +2613,13 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="21">
         <v>108</v>
       </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2388,13 +2648,13 @@
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="21">
         <v>144</v>
       </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2424,13 +2684,13 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="21">
         <v>180</v>
       </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="E6" s="23">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2450,13 +2710,13 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="21">
         <v>216</v>
       </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2476,13 +2736,13 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="21">
         <v>252</v>
       </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2503,13 +2763,13 @@
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="21">
         <v>288</v>
       </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
+      <c r="E9" s="23">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2530,13 +2790,13 @@
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="21">
         <v>324</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="23">
         <v>8.42</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="23">
         <f t="shared" si="1"/>
         <v>8.4200000000000004E-3</v>
       </c>
@@ -2557,13 +2817,13 @@
         <f t="shared" si="0"/>
         <v>5.3999999999999995</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="21">
         <v>360</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="23">
         <v>97.36</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="23">
         <f t="shared" si="1"/>
         <v>9.7360000000000002E-2</v>
       </c>
@@ -2583,13 +2843,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="21">
         <v>396</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="23">
         <v>361.59</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="23">
         <f t="shared" si="1"/>
         <v>0.36158999999999997</v>
       </c>
@@ -2610,13 +2870,13 @@
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="21">
         <v>432</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="23">
         <v>694.26</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="23">
         <f t="shared" si="1"/>
         <v>0.69425999999999999</v>
       </c>
@@ -2637,13 +2897,13 @@
         <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="21">
         <v>468</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="23">
         <v>1129.8599999999999</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="23">
         <f t="shared" si="1"/>
         <v>1.1298599999999999</v>
       </c>
@@ -2664,13 +2924,13 @@
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="21">
         <v>504</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="23">
         <v>1415.98</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="23">
         <f t="shared" si="1"/>
         <v>1.41598</v>
       </c>
@@ -2691,13 +2951,13 @@
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="21">
         <v>540</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="23">
         <v>1454.28</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="23">
         <f t="shared" si="1"/>
         <v>1.45428</v>
       </c>
@@ -2718,13 +2978,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="21">
         <v>576</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="23">
         <v>1327.95</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="23">
         <f t="shared" si="1"/>
         <v>1.32795</v>
       </c>
@@ -2745,13 +3005,13 @@
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="21">
         <v>612</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="23">
         <v>877.71</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="23">
         <f t="shared" si="1"/>
         <v>0.87770999999999999</v>
       </c>
@@ -2772,13 +3032,13 @@
         <f t="shared" si="0"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="21">
         <v>648</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="23">
         <v>397.9</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="23">
         <f t="shared" si="1"/>
         <v>0.39789999999999998</v>
       </c>
@@ -2799,13 +3059,13 @@
         <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="21">
         <v>684</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="23">
         <v>115.09</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="23">
         <f t="shared" si="1"/>
         <v>0.11509</v>
       </c>
@@ -2826,13 +3086,13 @@
         <f t="shared" si="0"/>
         <v>11.4</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="21">
         <v>720</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="23">
         <v>24.07</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="23">
         <f t="shared" si="1"/>
         <v>2.4070000000000001E-2</v>
       </c>
@@ -2853,13 +3113,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="21">
         <v>756</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="23">
         <v>6.81</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="23">
         <f t="shared" si="1"/>
         <v>6.8099999999999992E-3</v>
       </c>
@@ -2880,13 +3140,13 @@
         <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="21">
         <v>792</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="23">
         <v>3.84</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="23">
         <f t="shared" si="1"/>
         <v>3.8399999999999997E-3</v>
       </c>
@@ -2907,13 +3167,13 @@
         <f t="shared" si="0"/>
         <v>13.2</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="21">
         <v>828</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="23">
         <v>4.25</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="23">
         <f t="shared" si="1"/>
         <v>4.2500000000000003E-3</v>
       </c>
@@ -2934,13 +3194,13 @@
         <f t="shared" si="0"/>
         <v>13.799999999999999</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="21">
         <v>864</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="23">
         <v>2.7</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="23">
         <f t="shared" si="1"/>
         <v>2.7000000000000001E-3</v>
       </c>
@@ -2961,13 +3221,13 @@
         <f t="shared" si="0"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="21">
         <v>900</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="23">
         <v>2.76</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="23">
         <f t="shared" si="1"/>
         <v>2.7599999999999999E-3</v>
       </c>
@@ -2988,13 +3248,13 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="21">
         <v>936</v>
       </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="21">
+      <c r="E27" s="23">
+        <v>0</v>
+      </c>
+      <c r="F27" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3015,13 +3275,13 @@
         <f t="shared" ref="C28:C34" si="3">B28*$J$5</f>
         <v>15.6</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="21">
         <v>972</v>
       </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="21">
+      <c r="E28" s="23">
+        <v>0</v>
+      </c>
+      <c r="F28" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3041,13 +3301,13 @@
         <f t="shared" si="3"/>
         <v>16.2</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="21">
         <v>1008</v>
       </c>
-      <c r="E29" s="15">
-        <v>0</v>
-      </c>
-      <c r="F29" s="21">
+      <c r="E29" s="23">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3067,13 +3327,13 @@
         <f t="shared" si="3"/>
         <v>16.8</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="21">
         <v>1044</v>
       </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="21">
+      <c r="E30" s="23">
+        <v>0</v>
+      </c>
+      <c r="F30" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3093,13 +3353,13 @@
         <f t="shared" si="3"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="21">
         <v>1080</v>
       </c>
-      <c r="E31" s="15">
-        <v>0</v>
-      </c>
-      <c r="F31" s="21">
+      <c r="E31" s="23">
+        <v>0</v>
+      </c>
+      <c r="F31" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3119,13 +3379,13 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="21">
         <v>1116</v>
       </c>
-      <c r="E32" s="15">
-        <v>0</v>
-      </c>
-      <c r="F32" s="21">
+      <c r="E32" s="23">
+        <v>0</v>
+      </c>
+      <c r="F32" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3145,13 +3405,13 @@
         <f t="shared" si="3"/>
         <v>18.599999999999998</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="21">
         <v>1152</v>
       </c>
-      <c r="E33" s="15">
-        <v>0</v>
-      </c>
-      <c r="F33" s="21">
+      <c r="E33" s="23">
+        <v>0</v>
+      </c>
+      <c r="F33" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3171,13 +3431,13 @@
         <f t="shared" si="3"/>
         <v>19.2</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="22">
         <v>1188</v>
       </c>
-      <c r="E34" s="19">
-        <v>0</v>
-      </c>
-      <c r="F34" s="21">
+      <c r="E34" s="23">
+        <v>0</v>
+      </c>
+      <c r="F34" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
